--- a/biology/Médecine/Revue_Soins/Revue_Soins.xlsx
+++ b/biology/Médecine/Revue_Soins/Revue_Soins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Revue Soins est un magazine mensuel français appartenant au groupe  Elsevier. C'est un magazine professionnel destiné aux infirmiers et aux infirmières.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le marché de la presse professionnelles à destination des infirmières, La Revue de l'infirmière appartient également au groupe Elsevier et L'Infirmière Magazine appartient au groupe Wolters Kluwer.
  Portail de la presse écrite   Portail des soins infirmiers   Portail de Paris                   </t>
